--- a/biology/Botanique/Orme_rouge/Orme_rouge.xlsx
+++ b/biology/Botanique/Orme_rouge/Orme_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulmus rubra
 L'Orme rouge (Ulmus rubra) est une espèce de plantes à fleurs de la famille des Ulmaceae. C'est un grand arbre caducifolié Il possède de grandes feuilles simples, une écorce brunâtre écailleuse et a pour fruits des samares. Il est originaire de la partie orientale de l'Amérique du Nord.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Orme rouge est un arbre qui peut atteindre 25 m de haut. L'écorce brunâtre est superficiellement cannelée et elle a des crêtes écailleuses. Les feuilles ovales, alternes et simples, mesurent de 15 à 20 cm de long. Les petite fleurs printanières, individuelles et sans pétale sont groupées en ombelle sur un court pédoncule. Le fruit est une petite samare mince et presque ronde qui mesure de 10 à 15 mm de long[1],[2].
+L'Orme rouge est un arbre qui peut atteindre 25 m de haut. L'écorce brunâtre est superficiellement cannelée et elle a des crêtes écailleuses. Les feuilles ovales, alternes et simples, mesurent de 15 à 20 cm de long. Les petite fleurs printanières, individuelles et sans pétale sont groupées en ombelle sur un court pédoncule. Le fruit est une petite samare mince et presque ronde qui mesure de 10 à 15 mm de long,.
 			Feuillage.
 			Écorce.
 			Samare.
@@ -547,9 +561,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Orme rouge affectionne les sols riches et ensoleillés en bordure des cours d'eau et parfois sur des crêtes rocheuses[3]. L'Orme rouge se rencontre au Sud-Ouest du fleuve Saint-Laurent (Montérégie) et sur la Rive-Nord jusqu’à Québec[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Orme rouge affectionne les sols riches et ensoleillés en bordure des cours d'eau et parfois sur des crêtes rocheuses. L'Orme rouge se rencontre au Sud-Ouest du fleuve Saint-Laurent (Montérégie) et sur la Rive-Nord jusqu’à Québec.
 </t>
         </is>
       </c>
@@ -580,12 +596,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horticole
-L'Orme rouge est utilisé comme arbre ornemental et comme bonsaï[1],[2].
-Médicinaux
-La poudre de l'Orme rouge peut être utilisé pour faire une infusion qui traite les troubles digestifs[4].
-Composition
-Riche en mucilage, l'orme rouge convient aussi bien à un usage alimentaire que médical. Il adoucit les inflammations, internes ou externes[5].
+          <t>Horticole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Orme rouge est utilisé comme arbre ornemental et comme bonsaï,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orme_rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orme_rouge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Médicinaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poudre de l'Orme rouge peut être utilisé pour faire une infusion qui traite les troubles digestifs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orme_rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orme_rouge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riche en mucilage, l'orme rouge convient aussi bien à un usage alimentaire que médical. Il adoucit les inflammations, internes ou externes.
 </t>
         </is>
       </c>
